--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -35,16 +35,16 @@
     <t>Уральский Государственный Медицинский Университет;Северо-Восточный Федеральный Университет им. М.К. Аммосова;</t>
   </si>
   <si>
+    <t>Физическая культура</t>
+  </si>
+  <si>
+    <t>Национальный государственный Университет физической культуры, спорта и здоровья имени П.Ф.Лесгафта, Санкт-Петербург;Кубанский государственный университет физической культуры, спорта и туризма;</t>
+  </si>
+  <si>
     <t>Иностранные языки</t>
   </si>
   <si>
     <t>Московский Государственный Лингвистический Университет;Московский институт иностранных языков;</t>
-  </si>
-  <si>
-    <t>Физическая культура</t>
-  </si>
-  <si>
-    <t>Национальный государственный Университет физической культуры, спорта и здоровья имени П.Ф.Лесгафта, Санкт-Петербург;Кубанский государственный университет физической культуры, спорта и туризма;</t>
   </si>
 </sst>
 </file>
@@ -140,10 +140,10 @@
         <v>7</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>4.400000095367432</v>
+        <v>4.570000171661377</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>2.0</v>
@@ -157,10 +157,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>4.570000171661377</v>
+        <v>4.400000095367432</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>2.0</v>
